--- a/script_DNRPA/registroParqueActivoNacion.xlsx
+++ b/script_DNRPA/registroParqueActivoNacion.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,22 +47,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +388,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Provincia / Mes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>BUENOS AIRES</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CABA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CATAMARCA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CORDOBA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CORRIENTES</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CHACO</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CHUBUT</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ENTRE RIOS</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>FORMOSA</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>JUJUY</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LA PAMPA</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LA RIOJA</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>MENDOZA</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>MISIONES</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>NEUQUEN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>RIO NEGRO</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>SALTA</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>SAN JUAN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>S. DEL ESTERO</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>TUCUMAN</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>T. DEL FUEGO</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>40179</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3557460</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1094202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51305</v>
+      </c>
+      <c r="E2" t="n">
+        <v>974107</v>
+      </c>
+      <c r="F2" t="n">
+        <v>141698</v>
+      </c>
+      <c r="G2" t="n">
+        <v>127352</v>
+      </c>
+      <c r="H2" t="n">
+        <v>183055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>317979</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91697</v>
+      </c>
+      <c r="L2" t="n">
+        <v>105200</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50301</v>
+      </c>
+      <c r="N2" t="n">
+        <v>505128</v>
+      </c>
+      <c r="O2" t="n">
+        <v>153106</v>
+      </c>
+      <c r="P2" t="n">
+        <v>166072</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>163866</v>
+      </c>
+      <c r="R2" t="n">
+        <v>146441</v>
+      </c>
+      <c r="S2" t="n">
+        <v>137701</v>
+      </c>
+      <c r="T2" t="n">
+        <v>94083</v>
+      </c>
+      <c r="U2" t="n">
+        <v>101238</v>
+      </c>
+      <c r="V2" t="n">
+        <v>874331</v>
+      </c>
+      <c r="W2" t="n">
+        <v>77402</v>
+      </c>
+      <c r="X2" t="n">
+        <v>184245</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>51220</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9395122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>40210</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3582347</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1106044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51877</v>
+      </c>
+      <c r="E3" t="n">
+        <v>982376</v>
+      </c>
+      <c r="F3" t="n">
+        <v>143440</v>
+      </c>
+      <c r="G3" t="n">
+        <v>128980</v>
+      </c>
+      <c r="H3" t="n">
+        <v>184842</v>
+      </c>
+      <c r="I3" t="n">
+        <v>320048</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46727</v>
+      </c>
+      <c r="K3" t="n">
+        <v>92735</v>
+      </c>
+      <c r="L3" t="n">
+        <v>106058</v>
+      </c>
+      <c r="M3" t="n">
+        <v>50824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>508290</v>
+      </c>
+      <c r="O3" t="n">
+        <v>154348</v>
+      </c>
+      <c r="P3" t="n">
+        <v>167703</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>165032</v>
+      </c>
+      <c r="R3" t="n">
+        <v>148091</v>
+      </c>
+      <c r="S3" t="n">
+        <v>138589</v>
+      </c>
+      <c r="T3" t="n">
+        <v>94739</v>
+      </c>
+      <c r="U3" t="n">
+        <v>102571</v>
+      </c>
+      <c r="V3" t="n">
+        <v>881252</v>
+      </c>
+      <c r="W3" t="n">
+        <v>78242</v>
+      </c>
+      <c r="X3" t="n">
+        <v>186177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>51799</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9473131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>40238</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3597010</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1113739</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52150</v>
+      </c>
+      <c r="E4" t="n">
+        <v>986840</v>
+      </c>
+      <c r="F4" t="n">
+        <v>144372</v>
+      </c>
+      <c r="G4" t="n">
+        <v>129745</v>
+      </c>
+      <c r="H4" t="n">
+        <v>185812</v>
+      </c>
+      <c r="I4" t="n">
+        <v>321219</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47113</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93307</v>
+      </c>
+      <c r="L4" t="n">
+        <v>106520</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>509933</v>
+      </c>
+      <c r="O4" t="n">
+        <v>154870</v>
+      </c>
+      <c r="P4" t="n">
+        <v>168648</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>165741</v>
+      </c>
+      <c r="R4" t="n">
+        <v>149012</v>
+      </c>
+      <c r="S4" t="n">
+        <v>139062</v>
+      </c>
+      <c r="T4" t="n">
+        <v>95120</v>
+      </c>
+      <c r="U4" t="n">
+        <v>103229</v>
+      </c>
+      <c r="V4" t="n">
+        <v>884886</v>
+      </c>
+      <c r="W4" t="n">
+        <v>78681</v>
+      </c>
+      <c r="X4" t="n">
+        <v>187115</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>52214</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9517429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>40269</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3616018</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1123774</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52493</v>
+      </c>
+      <c r="E5" t="n">
+        <v>992314</v>
+      </c>
+      <c r="F5" t="n">
+        <v>145630</v>
+      </c>
+      <c r="G5" t="n">
+        <v>130620</v>
+      </c>
+      <c r="H5" t="n">
+        <v>187016</v>
+      </c>
+      <c r="I5" t="n">
+        <v>322714</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47682</v>
+      </c>
+      <c r="K5" t="n">
+        <v>94072</v>
+      </c>
+      <c r="L5" t="n">
+        <v>107097</v>
+      </c>
+      <c r="M5" t="n">
+        <v>51505</v>
+      </c>
+      <c r="N5" t="n">
+        <v>512124</v>
+      </c>
+      <c r="O5" t="n">
+        <v>155587</v>
+      </c>
+      <c r="P5" t="n">
+        <v>169739</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>166572</v>
+      </c>
+      <c r="R5" t="n">
+        <v>150182</v>
+      </c>
+      <c r="S5" t="n">
+        <v>139716</v>
+      </c>
+      <c r="T5" t="n">
+        <v>95596</v>
+      </c>
+      <c r="U5" t="n">
+        <v>104072</v>
+      </c>
+      <c r="V5" t="n">
+        <v>889335</v>
+      </c>
+      <c r="W5" t="n">
+        <v>79287</v>
+      </c>
+      <c r="X5" t="n">
+        <v>188337</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>52736</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9574218</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>40299</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3632907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1132885</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52809</v>
+      </c>
+      <c r="E6" t="n">
+        <v>997403</v>
+      </c>
+      <c r="F6" t="n">
+        <v>146789</v>
+      </c>
+      <c r="G6" t="n">
+        <v>131267</v>
+      </c>
+      <c r="H6" t="n">
+        <v>187965</v>
+      </c>
+      <c r="I6" t="n">
+        <v>324034</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48161</v>
+      </c>
+      <c r="K6" t="n">
+        <v>94720</v>
+      </c>
+      <c r="L6" t="n">
+        <v>107600</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51831</v>
+      </c>
+      <c r="N6" t="n">
+        <v>514150</v>
+      </c>
+      <c r="O6" t="n">
+        <v>156242</v>
+      </c>
+      <c r="P6" t="n">
+        <v>170649</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>167360</v>
+      </c>
+      <c r="R6" t="n">
+        <v>151183</v>
+      </c>
+      <c r="S6" t="n">
+        <v>140229</v>
+      </c>
+      <c r="T6" t="n">
+        <v>96018</v>
+      </c>
+      <c r="U6" t="n">
+        <v>104807</v>
+      </c>
+      <c r="V6" t="n">
+        <v>893345</v>
+      </c>
+      <c r="W6" t="n">
+        <v>79760</v>
+      </c>
+      <c r="X6" t="n">
+        <v>189517</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>53239</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9624870</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>40330</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3649477</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1142124</v>
+      </c>
+      <c r="D7" t="n">
+        <v>53074</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1002382</v>
+      </c>
+      <c r="F7" t="n">
+        <v>147850</v>
+      </c>
+      <c r="G7" t="n">
+        <v>131936</v>
+      </c>
+      <c r="H7" t="n">
+        <v>188993</v>
+      </c>
+      <c r="I7" t="n">
+        <v>325338</v>
+      </c>
+      <c r="J7" t="n">
+        <v>48588</v>
+      </c>
+      <c r="K7" t="n">
+        <v>95407</v>
+      </c>
+      <c r="L7" t="n">
+        <v>108062</v>
+      </c>
+      <c r="M7" t="n">
+        <v>52158</v>
+      </c>
+      <c r="N7" t="n">
+        <v>516214</v>
+      </c>
+      <c r="O7" t="n">
+        <v>156885</v>
+      </c>
+      <c r="P7" t="n">
+        <v>171556</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>168093</v>
+      </c>
+      <c r="R7" t="n">
+        <v>152204</v>
+      </c>
+      <c r="S7" t="n">
+        <v>140822</v>
+      </c>
+      <c r="T7" t="n">
+        <v>96457</v>
+      </c>
+      <c r="U7" t="n">
+        <v>105594</v>
+      </c>
+      <c r="V7" t="n">
+        <v>897284</v>
+      </c>
+      <c r="W7" t="n">
+        <v>80252</v>
+      </c>
+      <c r="X7" t="n">
+        <v>190721</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>53702</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9675173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>40360</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3667458</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1152177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53418</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1008028</v>
+      </c>
+      <c r="F8" t="n">
+        <v>149050</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132644</v>
+      </c>
+      <c r="H8" t="n">
+        <v>190107</v>
+      </c>
+      <c r="I8" t="n">
+        <v>326740</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49056</v>
+      </c>
+      <c r="K8" t="n">
+        <v>96067</v>
+      </c>
+      <c r="L8" t="n">
+        <v>108593</v>
+      </c>
+      <c r="M8" t="n">
+        <v>52448</v>
+      </c>
+      <c r="N8" t="n">
+        <v>518268</v>
+      </c>
+      <c r="O8" t="n">
+        <v>157591</v>
+      </c>
+      <c r="P8" t="n">
+        <v>172467</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>168843</v>
+      </c>
+      <c r="R8" t="n">
+        <v>153327</v>
+      </c>
+      <c r="S8" t="n">
+        <v>141390</v>
+      </c>
+      <c r="T8" t="n">
+        <v>96916</v>
+      </c>
+      <c r="U8" t="n">
+        <v>106425</v>
+      </c>
+      <c r="V8" t="n">
+        <v>901696</v>
+      </c>
+      <c r="W8" t="n">
+        <v>80752</v>
+      </c>
+      <c r="X8" t="n">
+        <v>191988</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>54213</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9729662</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>40391</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3686357</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1162110</v>
+      </c>
+      <c r="D9" t="n">
+        <v>53741</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1013777</v>
+      </c>
+      <c r="F9" t="n">
+        <v>150231</v>
+      </c>
+      <c r="G9" t="n">
+        <v>133408</v>
+      </c>
+      <c r="H9" t="n">
+        <v>191187</v>
+      </c>
+      <c r="I9" t="n">
+        <v>328415</v>
+      </c>
+      <c r="J9" t="n">
+        <v>49539</v>
+      </c>
+      <c r="K9" t="n">
+        <v>96722</v>
+      </c>
+      <c r="L9" t="n">
+        <v>109164</v>
+      </c>
+      <c r="M9" t="n">
+        <v>52776</v>
+      </c>
+      <c r="N9" t="n">
+        <v>520494</v>
+      </c>
+      <c r="O9" t="n">
+        <v>158350</v>
+      </c>
+      <c r="P9" t="n">
+        <v>173525</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>169660</v>
+      </c>
+      <c r="R9" t="n">
+        <v>154432</v>
+      </c>
+      <c r="S9" t="n">
+        <v>142052</v>
+      </c>
+      <c r="T9" t="n">
+        <v>97414</v>
+      </c>
+      <c r="U9" t="n">
+        <v>107327</v>
+      </c>
+      <c r="V9" t="n">
+        <v>906605</v>
+      </c>
+      <c r="W9" t="n">
+        <v>81267</v>
+      </c>
+      <c r="X9" t="n">
+        <v>193228</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>54807</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9786588</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>40422</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3704817</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1172083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54075</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1019704</v>
+      </c>
+      <c r="F10" t="n">
+        <v>151405</v>
+      </c>
+      <c r="G10" t="n">
+        <v>134292</v>
+      </c>
+      <c r="H10" t="n">
+        <v>192316</v>
+      </c>
+      <c r="I10" t="n">
+        <v>329870</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50080</v>
+      </c>
+      <c r="K10" t="n">
+        <v>97359</v>
+      </c>
+      <c r="L10" t="n">
+        <v>109684</v>
+      </c>
+      <c r="M10" t="n">
+        <v>53112</v>
+      </c>
+      <c r="N10" t="n">
+        <v>522818</v>
+      </c>
+      <c r="O10" t="n">
+        <v>159052</v>
+      </c>
+      <c r="P10" t="n">
+        <v>174633</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>170509</v>
+      </c>
+      <c r="R10" t="n">
+        <v>155603</v>
+      </c>
+      <c r="S10" t="n">
+        <v>142675</v>
+      </c>
+      <c r="T10" t="n">
+        <v>97875</v>
+      </c>
+      <c r="U10" t="n">
+        <v>108224</v>
+      </c>
+      <c r="V10" t="n">
+        <v>911541</v>
+      </c>
+      <c r="W10" t="n">
+        <v>81813</v>
+      </c>
+      <c r="X10" t="n">
+        <v>194491</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>55457</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9843488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>40452</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3726217</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1183037</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54434</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1025982</v>
+      </c>
+      <c r="F11" t="n">
+        <v>152680</v>
+      </c>
+      <c r="G11" t="n">
+        <v>135242</v>
+      </c>
+      <c r="H11" t="n">
+        <v>193558</v>
+      </c>
+      <c r="I11" t="n">
+        <v>331565</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50611</v>
+      </c>
+      <c r="K11" t="n">
+        <v>98126</v>
+      </c>
+      <c r="L11" t="n">
+        <v>110349</v>
+      </c>
+      <c r="M11" t="n">
+        <v>53482</v>
+      </c>
+      <c r="N11" t="n">
+        <v>525221</v>
+      </c>
+      <c r="O11" t="n">
+        <v>159903</v>
+      </c>
+      <c r="P11" t="n">
+        <v>175749</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>171455</v>
+      </c>
+      <c r="R11" t="n">
+        <v>156924</v>
+      </c>
+      <c r="S11" t="n">
+        <v>143300</v>
+      </c>
+      <c r="T11" t="n">
+        <v>98388</v>
+      </c>
+      <c r="U11" t="n">
+        <v>109267</v>
+      </c>
+      <c r="V11" t="n">
+        <v>916983</v>
+      </c>
+      <c r="W11" t="n">
+        <v>82405</v>
+      </c>
+      <c r="X11" t="n">
+        <v>195897</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>56204</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9906979</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>40483</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3744232</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1192963</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54749</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1031010</v>
+      </c>
+      <c r="F12" t="n">
+        <v>153794</v>
+      </c>
+      <c r="G12" t="n">
+        <v>135989</v>
+      </c>
+      <c r="H12" t="n">
+        <v>194598</v>
+      </c>
+      <c r="I12" t="n">
+        <v>333010</v>
+      </c>
+      <c r="J12" t="n">
+        <v>51053</v>
+      </c>
+      <c r="K12" t="n">
+        <v>98721</v>
+      </c>
+      <c r="L12" t="n">
+        <v>110878</v>
+      </c>
+      <c r="M12" t="n">
+        <v>53779</v>
+      </c>
+      <c r="N12" t="n">
+        <v>527177</v>
+      </c>
+      <c r="O12" t="n">
+        <v>160601</v>
+      </c>
+      <c r="P12" t="n">
+        <v>176613</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>172188</v>
+      </c>
+      <c r="R12" t="n">
+        <v>157909</v>
+      </c>
+      <c r="S12" t="n">
+        <v>143802</v>
+      </c>
+      <c r="T12" t="n">
+        <v>98841</v>
+      </c>
+      <c r="U12" t="n">
+        <v>109985</v>
+      </c>
+      <c r="V12" t="n">
+        <v>921612</v>
+      </c>
+      <c r="W12" t="n">
+        <v>82813</v>
+      </c>
+      <c r="X12" t="n">
+        <v>197070</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>56919</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9960306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>40513</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3762225</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1203331</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54974</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1035981</v>
+      </c>
+      <c r="F13" t="n">
+        <v>154949</v>
+      </c>
+      <c r="G13" t="n">
+        <v>136681</v>
+      </c>
+      <c r="H13" t="n">
+        <v>195820</v>
+      </c>
+      <c r="I13" t="n">
+        <v>334421</v>
+      </c>
+      <c r="J13" t="n">
+        <v>51449</v>
+      </c>
+      <c r="K13" t="n">
+        <v>99363</v>
+      </c>
+      <c r="L13" t="n">
+        <v>111380</v>
+      </c>
+      <c r="M13" t="n">
+        <v>54027</v>
+      </c>
+      <c r="N13" t="n">
+        <v>529024</v>
+      </c>
+      <c r="O13" t="n">
+        <v>161314</v>
+      </c>
+      <c r="P13" t="n">
+        <v>177634</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>172976</v>
+      </c>
+      <c r="R13" t="n">
+        <v>158954</v>
+      </c>
+      <c r="S13" t="n">
+        <v>144216</v>
+      </c>
+      <c r="T13" t="n">
+        <v>99271</v>
+      </c>
+      <c r="U13" t="n">
+        <v>110984</v>
+      </c>
+      <c r="V13" t="n">
+        <v>925955</v>
+      </c>
+      <c r="W13" t="n">
+        <v>83205</v>
+      </c>
+      <c r="X13" t="n">
+        <v>198142</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>57727</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10014003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/script_DNRPA/registroParqueActivoNacion.xlsx
+++ b/script_DNRPA/registroParqueActivoNacion.xlsx
@@ -535,962 +535,962 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>40179</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>3557460</v>
+        <v>6556514</v>
       </c>
       <c r="C2" t="n">
-        <v>1094202</v>
+        <v>1596529</v>
       </c>
       <c r="D2" t="n">
-        <v>51305</v>
+        <v>125583</v>
       </c>
       <c r="E2" t="n">
-        <v>974107</v>
+        <v>1743924</v>
       </c>
       <c r="F2" t="n">
-        <v>141698</v>
+        <v>334057</v>
       </c>
       <c r="G2" t="n">
-        <v>127352</v>
+        <v>286400</v>
       </c>
       <c r="H2" t="n">
-        <v>183055</v>
+        <v>342578</v>
       </c>
       <c r="I2" t="n">
-        <v>317979</v>
+        <v>593840</v>
       </c>
       <c r="J2" t="n">
-        <v>45933</v>
+        <v>117597</v>
       </c>
       <c r="K2" t="n">
-        <v>91697</v>
+        <v>203928</v>
       </c>
       <c r="L2" t="n">
-        <v>105200</v>
+        <v>204317</v>
       </c>
       <c r="M2" t="n">
-        <v>50301</v>
+        <v>112677</v>
       </c>
       <c r="N2" t="n">
-        <v>505128</v>
+        <v>874818</v>
       </c>
       <c r="O2" t="n">
-        <v>153106</v>
+        <v>326078</v>
       </c>
       <c r="P2" t="n">
-        <v>166072</v>
+        <v>366189</v>
       </c>
       <c r="Q2" t="n">
-        <v>163866</v>
+        <v>359292</v>
       </c>
       <c r="R2" t="n">
-        <v>146441</v>
+        <v>338573</v>
       </c>
       <c r="S2" t="n">
-        <v>137701</v>
+        <v>267571</v>
       </c>
       <c r="T2" t="n">
-        <v>94083</v>
+        <v>216949</v>
       </c>
       <c r="U2" t="n">
-        <v>101238</v>
+        <v>199838</v>
       </c>
       <c r="V2" t="n">
-        <v>874331</v>
+        <v>1494376</v>
       </c>
       <c r="W2" t="n">
-        <v>77402</v>
+        <v>199475</v>
       </c>
       <c r="X2" t="n">
-        <v>184245</v>
+        <v>436690</v>
       </c>
       <c r="Y2" t="n">
-        <v>51220</v>
+        <v>103959</v>
       </c>
       <c r="Z2" t="n">
-        <v>9395122</v>
+        <v>17401752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>40210</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="n">
-        <v>3582347</v>
+        <v>6566752</v>
       </c>
       <c r="C3" t="n">
-        <v>1106044</v>
+        <v>1597143</v>
       </c>
       <c r="D3" t="n">
-        <v>51877</v>
+        <v>125768</v>
       </c>
       <c r="E3" t="n">
-        <v>982376</v>
+        <v>1746647</v>
       </c>
       <c r="F3" t="n">
-        <v>143440</v>
+        <v>334731</v>
       </c>
       <c r="G3" t="n">
-        <v>128980</v>
+        <v>286888</v>
       </c>
       <c r="H3" t="n">
-        <v>184842</v>
+        <v>342890</v>
       </c>
       <c r="I3" t="n">
-        <v>320048</v>
+        <v>594885</v>
       </c>
       <c r="J3" t="n">
-        <v>46727</v>
+        <v>117848</v>
       </c>
       <c r="K3" t="n">
-        <v>92735</v>
+        <v>204222</v>
       </c>
       <c r="L3" t="n">
-        <v>106058</v>
+        <v>204692</v>
       </c>
       <c r="M3" t="n">
-        <v>50824</v>
+        <v>112793</v>
       </c>
       <c r="N3" t="n">
-        <v>508290</v>
+        <v>875976</v>
       </c>
       <c r="O3" t="n">
-        <v>154348</v>
+        <v>326789</v>
       </c>
       <c r="P3" t="n">
-        <v>167703</v>
+        <v>367012</v>
       </c>
       <c r="Q3" t="n">
-        <v>165032</v>
+        <v>359932</v>
       </c>
       <c r="R3" t="n">
-        <v>148091</v>
+        <v>339230</v>
       </c>
       <c r="S3" t="n">
-        <v>138589</v>
+        <v>268063</v>
       </c>
       <c r="T3" t="n">
-        <v>94739</v>
+        <v>217391</v>
       </c>
       <c r="U3" t="n">
-        <v>102571</v>
+        <v>200046</v>
       </c>
       <c r="V3" t="n">
-        <v>881252</v>
+        <v>1495789</v>
       </c>
       <c r="W3" t="n">
-        <v>78242</v>
+        <v>199967</v>
       </c>
       <c r="X3" t="n">
-        <v>186177</v>
+        <v>437339</v>
       </c>
       <c r="Y3" t="n">
-        <v>51799</v>
+        <v>104142</v>
       </c>
       <c r="Z3" t="n">
-        <v>9473131</v>
+        <v>17426935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40238</v>
+        <v>44986</v>
       </c>
       <c r="B4" t="n">
-        <v>3597010</v>
+        <v>6578965</v>
       </c>
       <c r="C4" t="n">
-        <v>1113739</v>
+        <v>1599450</v>
       </c>
       <c r="D4" t="n">
-        <v>52150</v>
+        <v>126006</v>
       </c>
       <c r="E4" t="n">
-        <v>986840</v>
+        <v>1750200</v>
       </c>
       <c r="F4" t="n">
-        <v>144372</v>
+        <v>335576</v>
       </c>
       <c r="G4" t="n">
-        <v>129745</v>
+        <v>287686</v>
       </c>
       <c r="H4" t="n">
-        <v>185812</v>
+        <v>343465</v>
       </c>
       <c r="I4" t="n">
-        <v>321219</v>
+        <v>596157</v>
       </c>
       <c r="J4" t="n">
-        <v>47113</v>
+        <v>118153</v>
       </c>
       <c r="K4" t="n">
-        <v>93307</v>
+        <v>204641</v>
       </c>
       <c r="L4" t="n">
-        <v>106520</v>
+        <v>205094</v>
       </c>
       <c r="M4" t="n">
-        <v>51091</v>
+        <v>112925</v>
       </c>
       <c r="N4" t="n">
-        <v>509933</v>
+        <v>877289</v>
       </c>
       <c r="O4" t="n">
-        <v>154870</v>
+        <v>327550</v>
       </c>
       <c r="P4" t="n">
-        <v>168648</v>
+        <v>368021</v>
       </c>
       <c r="Q4" t="n">
-        <v>165741</v>
+        <v>360839</v>
       </c>
       <c r="R4" t="n">
-        <v>149012</v>
+        <v>340115</v>
       </c>
       <c r="S4" t="n">
-        <v>139062</v>
+        <v>268709</v>
       </c>
       <c r="T4" t="n">
-        <v>95120</v>
+        <v>217844</v>
       </c>
       <c r="U4" t="n">
-        <v>103229</v>
+        <v>200299</v>
       </c>
       <c r="V4" t="n">
-        <v>884886</v>
+        <v>1498003</v>
       </c>
       <c r="W4" t="n">
-        <v>78681</v>
+        <v>200516</v>
       </c>
       <c r="X4" t="n">
-        <v>187115</v>
+        <v>438170</v>
       </c>
       <c r="Y4" t="n">
-        <v>52214</v>
+        <v>104316</v>
       </c>
       <c r="Z4" t="n">
-        <v>9517429</v>
+        <v>17459989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>40269</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>3616018</v>
+        <v>6589720</v>
       </c>
       <c r="C5" t="n">
-        <v>1123774</v>
+        <v>1601073</v>
       </c>
       <c r="D5" t="n">
-        <v>52493</v>
+        <v>126192</v>
       </c>
       <c r="E5" t="n">
-        <v>992314</v>
+        <v>1753283</v>
       </c>
       <c r="F5" t="n">
-        <v>145630</v>
+        <v>336356</v>
       </c>
       <c r="G5" t="n">
-        <v>130620</v>
+        <v>288292</v>
       </c>
       <c r="H5" t="n">
-        <v>187016</v>
+        <v>343843</v>
       </c>
       <c r="I5" t="n">
-        <v>322714</v>
+        <v>597324</v>
       </c>
       <c r="J5" t="n">
-        <v>47682</v>
+        <v>118402</v>
       </c>
       <c r="K5" t="n">
-        <v>94072</v>
+        <v>204988</v>
       </c>
       <c r="L5" t="n">
-        <v>107097</v>
+        <v>205444</v>
       </c>
       <c r="M5" t="n">
-        <v>51505</v>
+        <v>113110</v>
       </c>
       <c r="N5" t="n">
-        <v>512124</v>
+        <v>878393</v>
       </c>
       <c r="O5" t="n">
-        <v>155587</v>
+        <v>328421</v>
       </c>
       <c r="P5" t="n">
-        <v>169739</v>
+        <v>369209</v>
       </c>
       <c r="Q5" t="n">
-        <v>166572</v>
+        <v>361747</v>
       </c>
       <c r="R5" t="n">
-        <v>150182</v>
+        <v>340905</v>
       </c>
       <c r="S5" t="n">
-        <v>139716</v>
+        <v>269224</v>
       </c>
       <c r="T5" t="n">
-        <v>95596</v>
+        <v>218332</v>
       </c>
       <c r="U5" t="n">
-        <v>104072</v>
+        <v>200517</v>
       </c>
       <c r="V5" t="n">
-        <v>889335</v>
+        <v>1499543</v>
       </c>
       <c r="W5" t="n">
-        <v>79287</v>
+        <v>200913</v>
       </c>
       <c r="X5" t="n">
-        <v>188337</v>
+        <v>438912</v>
       </c>
       <c r="Y5" t="n">
-        <v>52736</v>
+        <v>104446</v>
       </c>
       <c r="Z5" t="n">
-        <v>9574218</v>
+        <v>17488589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40299</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>3632907</v>
+        <v>6601673</v>
       </c>
       <c r="C6" t="n">
-        <v>1132885</v>
+        <v>1604263</v>
       </c>
       <c r="D6" t="n">
-        <v>52809</v>
+        <v>126412</v>
       </c>
       <c r="E6" t="n">
-        <v>997403</v>
+        <v>1756829</v>
       </c>
       <c r="F6" t="n">
-        <v>146789</v>
+        <v>337225</v>
       </c>
       <c r="G6" t="n">
-        <v>131267</v>
+        <v>288975</v>
       </c>
       <c r="H6" t="n">
-        <v>187965</v>
+        <v>344260</v>
       </c>
       <c r="I6" t="n">
-        <v>324034</v>
+        <v>598482</v>
       </c>
       <c r="J6" t="n">
-        <v>48161</v>
+        <v>118611</v>
       </c>
       <c r="K6" t="n">
-        <v>94720</v>
+        <v>205432</v>
       </c>
       <c r="L6" t="n">
-        <v>107600</v>
+        <v>205874</v>
       </c>
       <c r="M6" t="n">
-        <v>51831</v>
+        <v>113320</v>
       </c>
       <c r="N6" t="n">
-        <v>514150</v>
+        <v>879760</v>
       </c>
       <c r="O6" t="n">
-        <v>156242</v>
+        <v>329280</v>
       </c>
       <c r="P6" t="n">
-        <v>170649</v>
+        <v>370332</v>
       </c>
       <c r="Q6" t="n">
-        <v>167360</v>
+        <v>362682</v>
       </c>
       <c r="R6" t="n">
-        <v>151183</v>
+        <v>341781</v>
       </c>
       <c r="S6" t="n">
-        <v>140229</v>
+        <v>269748</v>
       </c>
       <c r="T6" t="n">
-        <v>96018</v>
+        <v>218834</v>
       </c>
       <c r="U6" t="n">
-        <v>104807</v>
+        <v>200757</v>
       </c>
       <c r="V6" t="n">
-        <v>893345</v>
+        <v>1501601</v>
       </c>
       <c r="W6" t="n">
-        <v>79760</v>
+        <v>201459</v>
       </c>
       <c r="X6" t="n">
-        <v>189517</v>
+        <v>439762</v>
       </c>
       <c r="Y6" t="n">
-        <v>53239</v>
+        <v>104609</v>
       </c>
       <c r="Z6" t="n">
-        <v>9624870</v>
+        <v>17521961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>40330</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="n">
-        <v>3649477</v>
+        <v>6614240</v>
       </c>
       <c r="C7" t="n">
-        <v>1142124</v>
+        <v>1607331</v>
       </c>
       <c r="D7" t="n">
-        <v>53074</v>
+        <v>126678</v>
       </c>
       <c r="E7" t="n">
-        <v>1002382</v>
+        <v>1760221</v>
       </c>
       <c r="F7" t="n">
-        <v>147850</v>
+        <v>338085</v>
       </c>
       <c r="G7" t="n">
-        <v>131936</v>
+        <v>289692</v>
       </c>
       <c r="H7" t="n">
-        <v>188993</v>
+        <v>344744</v>
       </c>
       <c r="I7" t="n">
-        <v>325338</v>
+        <v>599590</v>
       </c>
       <c r="J7" t="n">
-        <v>48588</v>
+        <v>118826</v>
       </c>
       <c r="K7" t="n">
-        <v>95407</v>
+        <v>205856</v>
       </c>
       <c r="L7" t="n">
-        <v>108062</v>
+        <v>206275</v>
       </c>
       <c r="M7" t="n">
-        <v>52158</v>
+        <v>113491</v>
       </c>
       <c r="N7" t="n">
-        <v>516214</v>
+        <v>881172</v>
       </c>
       <c r="O7" t="n">
-        <v>156885</v>
+        <v>330129</v>
       </c>
       <c r="P7" t="n">
-        <v>171556</v>
+        <v>371720</v>
       </c>
       <c r="Q7" t="n">
-        <v>168093</v>
+        <v>363369</v>
       </c>
       <c r="R7" t="n">
-        <v>152204</v>
+        <v>342855</v>
       </c>
       <c r="S7" t="n">
-        <v>140822</v>
+        <v>270308</v>
       </c>
       <c r="T7" t="n">
-        <v>96457</v>
+        <v>219390</v>
       </c>
       <c r="U7" t="n">
-        <v>105594</v>
+        <v>201038</v>
       </c>
       <c r="V7" t="n">
-        <v>897284</v>
+        <v>1503644</v>
       </c>
       <c r="W7" t="n">
-        <v>80252</v>
+        <v>201936</v>
       </c>
       <c r="X7" t="n">
-        <v>190721</v>
+        <v>440597</v>
       </c>
       <c r="Y7" t="n">
-        <v>53702</v>
+        <v>104758</v>
       </c>
       <c r="Z7" t="n">
-        <v>9675173</v>
+        <v>17555945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40360</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>3667458</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1152177</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53418</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1008028</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>149050</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>132644</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>190107</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>326740</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49056</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>96067</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>108593</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>52448</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>518268</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>157591</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>172467</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>168843</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>153327</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>141390</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>96916</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>106425</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>901696</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>80752</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>191988</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>54213</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>9729662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>40391</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="n">
-        <v>3686357</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1162110</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>53741</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1013777</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>150231</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>133408</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>191187</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>328415</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>49539</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>96722</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>109164</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>52776</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>520494</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>158350</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>173525</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>169660</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>154432</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>142052</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>97414</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>107327</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>906605</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>81267</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>193228</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>54807</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>9786588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40422</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="n">
-        <v>3704817</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1172083</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54075</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1019704</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>151405</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>134292</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>192316</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>329870</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>50080</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>97359</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>109684</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>53112</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>522818</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>159052</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>174633</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>170509</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>155603</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142675</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97875</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108224</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>911541</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>81813</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>194491</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>55457</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>9843488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>40452</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="n">
-        <v>3726217</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1183037</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>54434</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1025982</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>152680</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>135242</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193558</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>331565</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50611</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>98126</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>110349</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>53482</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>525221</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>159903</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>175749</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>171455</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>156924</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>143300</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98388</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>109267</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>916983</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>82405</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>195897</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>56204</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>9906979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40483</v>
+        <v>45231</v>
       </c>
       <c r="B12" t="n">
-        <v>3744232</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1192963</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>54749</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1031010</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>153794</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135989</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>194598</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>333010</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51053</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>98721</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110878</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>53779</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>527177</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>160601</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>176613</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>172188</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>157909</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>143802</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>98841</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>109985</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>921612</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>82813</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>197070</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>56919</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>9960306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>40513</v>
+        <v>45261</v>
       </c>
       <c r="B13" t="n">
-        <v>3762225</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1203331</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>54974</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1035981</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>154949</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136681</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>195820</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>334421</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51449</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99363</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>111380</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>54027</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>529024</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>161314</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>177634</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>172976</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>158954</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144216</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>99271</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110984</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>925955</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83205</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198142</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57727</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>10014003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
